--- a/kadaifail/Book1.xlsx
+++ b/kadaifail/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_tominaga\Desktop\Java\kadaifail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_tominaga\Desktop\kadai\kadaifail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D13A63-1567-4A02-87B7-3BE16A90022C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A8CE5B-D007-4012-907F-0041257E9905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="4680" windowWidth="13470" windowHeight="11295" xr2:uid="{C6EB9DC6-C9FB-48C2-A75F-542FFDF4B568}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE17660E-45B7-4776-857A-39BCC5C073B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,23 +101,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="楕円 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C484D4-1ED1-168E-8BDE-044864756882}"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9399DB8-DBDE-F84A-A428-1CB99FFEEA5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -125,10 +125,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2457450" y="542925"/>
-          <a:ext cx="1562100" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
+          <a:off x="2895600" y="247650"/>
+          <a:ext cx="1123951" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -155,7 +155,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>宝石の名前</a:t>
+            <a:t>誕生石の名前</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -165,22 +165,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="楕円 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259A0DD9-CAF6-6532-ADA4-D6DC28651ECE}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BB30BD-1822-2751-710C-BB73EE4EC686}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -188,10 +188,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="2181225"/>
-          <a:ext cx="1514475" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
+          <a:off x="3190876" y="1990725"/>
+          <a:ext cx="457200" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -228,22 +228,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="楕円 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3EBD905-76C6-2CA8-ED32-5EEFE5C0CBD0}"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B374510A-A0AC-B987-BEE6-89BE94094A00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -251,10 +251,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2886075" y="4410075"/>
-          <a:ext cx="1419225" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
+          <a:off x="3095625" y="2552700"/>
+          <a:ext cx="590550" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -281,7 +281,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>石言葉</a:t>
+            <a:t>意味</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -291,22 +291,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="楕円 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B922C03-9AC4-BF7E-2B85-2260D2EBDD66}"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEF08C2-0FA7-108C-D63A-ACFA46E9FE4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -314,10 +314,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2762250" y="2876550"/>
-          <a:ext cx="1495425" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
+          <a:off x="3095625" y="3028950"/>
+          <a:ext cx="857250" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -344,75 +344,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>原産</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="楕円 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7E07CE-FA6E-6E3D-BCD6-99D44D785BDB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2886075" y="3619500"/>
-          <a:ext cx="1285875" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>モース硬度</a:t>
+            <a:t>産地</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -422,22 +354,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE87D3E-B635-1615-C38B-97FC73F49727}"/>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54562551-B8A3-234C-5DED-B232E6660D48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -445,15 +377,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3267075" y="990600"/>
-          <a:ext cx="152400" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+          <a:off x="2724150" y="1762125"/>
+          <a:ext cx="0" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -474,23 +403,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F216662-762C-E1F4-C0B1-604889D8F0E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="1790700"/>
+          <a:ext cx="1800225" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="13" name="直線コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F62E30-5478-A659-04E7-771B6AB0B4A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEE836C-945A-7E1B-68F3-6C64A741C92B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -498,8 +477,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2181225" y="2076450"/>
-          <a:ext cx="38100" cy="3105150"/>
+          <a:off x="4572000" y="1838325"/>
+          <a:ext cx="19050" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -524,32 +503,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="16" name="直線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D71FF5B6-A28C-4743-EFB6-52B7ED03E4BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07D7825-B431-95AC-F6C6-8C611EC63C57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2124075" y="2105025"/>
-          <a:ext cx="2505075" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="2743200" y="4238625"/>
+          <a:ext cx="1933575" cy="38100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -574,178 +553,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D36F63-F47E-68B6-5E2B-F9248AD5C8B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4619625" y="2066925"/>
-          <a:ext cx="85725" cy="3162300"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D77B82-849F-B308-14E5-40D3E78A4884}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2219325" y="5133975"/>
-          <a:ext cx="2524125" cy="76200"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED08D763-DA43-E7EC-8D9B-3A98D295A022}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4019550" y="766763"/>
-          <a:ext cx="1676400" cy="652462"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="楕円 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4789163A-6CEB-3C49-BD17-A0875C549E61}"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D0FA15-164D-75E0-8CD7-1DBD0124718B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -753,10 +577,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="1381125"/>
-          <a:ext cx="1590675" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
+          <a:off x="5514975" y="1143000"/>
+          <a:ext cx="1333500" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -785,6 +609,249 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>存在しません</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E79BB1-D1C4-C687-494D-C07EB035CEE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3581400"/>
+          <a:ext cx="1047750" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>硬度</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>64108</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>643770</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>156717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矢印: 右 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B976D4-56A5-3793-CE46-DDB4E03104B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2371075">
+          <a:off x="4150333" y="575817"/>
+          <a:ext cx="1265462" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矢印: 下 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE9CA50-9A73-58F0-70FC-3E261C84A9FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190875" y="781050"/>
+          <a:ext cx="561975" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="フローチャート: 処理 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D13542-2E58-B1EB-DDEC-ABF6EBA651D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="1990725"/>
+          <a:ext cx="1800225" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1089,14 +1156,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9C4960-3BB0-467F-A048-13D1EEB3391F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18D7A49-BD6C-41C7-8573-BE4BCDE22D6D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kadaifail/Book1.xlsx
+++ b/kadaifail/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_tominaga\Desktop\kadai\kadaifail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_tominaga\Desktop\Java\kadaifail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A8CE5B-D007-4012-907F-0041257E9905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639DBE91-38FB-44FD-A581-6A4A76254261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE17660E-45B7-4776-857A-39BCC5C073B5}"/>
+    <workbookView xWindow="1935" yWindow="4185" windowWidth="13470" windowHeight="11295" xr2:uid="{EE17660E-45B7-4776-857A-39BCC5C073B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,15 +102,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -125,7 +125,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="247650"/>
+          <a:off x="2952750" y="3686175"/>
           <a:ext cx="1123951" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -617,14 +617,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -640,7 +640,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="3581400"/>
+          <a:off x="3009900" y="247650"/>
           <a:ext cx="1047750" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -670,7 +670,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>硬度</a:t>
+            <a:t>月</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -740,15 +740,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -763,7 +763,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190875" y="781050"/>
+          <a:off x="3209925" y="828675"/>
           <a:ext cx="561975" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1160,7 +1160,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E14" sqref="D13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
